--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/StructuredSwapPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/StructuredSwapPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA40DC1-A9FE-422C-9FE5-516DD5B7A5D1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEE4137-6F3E-4448-87BE-2908F527F818}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="28515" windowHeight="12300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,15 @@
     <definedName name="ValRange">'Swap Cashflows'!#REF!</definedName>
     <definedName name="ValueResult">Config!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2341,14 +2349,14 @@
     <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 27/04/2018, 8:03 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 28/06/2019, 9:25 AM</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="85">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2404,7 +2412,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>127</v>
@@ -2413,7 +2421,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2438,7 +2446,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="C15" t="str">
         <f t="array" ref="C15:D56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( C9)</f>
@@ -2449,7 +2457,7 @@
       </c>
       <c r="F15">
         <f t="array" aca="1" ref="F15:G46" ca="1">_xll.HLV5r3.Financial.Cache.GetDaysAndRates(C9,D2,D3)</f>
-        <v>-2797</v>
+        <v>-3224</v>
       </c>
       <c r="G15">
         <f ca="1"/>
@@ -2458,7 +2466,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
       </c>
       <c r="C16" t="str">
         <v>GBP-Deposit-1W</v>
@@ -2468,16 +2476,16 @@
       </c>
       <c r="F16">
         <f ca="1"/>
-        <v>-2796</v>
+        <v>-3223</v>
       </c>
       <c r="G16">
         <f ca="1"/>
-        <v>-1.7882563074778091E-6</v>
+        <v>-1.5513387476850937E-6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
       </c>
       <c r="C17" t="str">
         <v>GBP-Deposit-1M</v>
@@ -2487,16 +2495,16 @@
       </c>
       <c r="F17">
         <f ca="1"/>
-        <v>-2790</v>
+        <v>-3217</v>
       </c>
       <c r="G17">
         <f ca="1"/>
-        <v>-1.3422227980619539E-5</v>
+        <v>-1.1640666585321924E-5</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
       </c>
       <c r="C18" t="str">
         <v>GBP-Deposit-2M</v>
@@ -2506,16 +2514,16 @@
       </c>
       <c r="F18">
         <f ca="1"/>
-        <v>-2766</v>
+        <v>-3193</v>
       </c>
       <c r="G18">
         <f ca="1"/>
-        <v>-6.4426989969224024E-5</v>
+        <v>-5.581122648878889E-5</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
       </c>
       <c r="C19" t="str">
         <v>GBP-Deposit-3M</v>
@@ -2525,16 +2533,16 @@
       </c>
       <c r="F19">
         <f ca="1"/>
-        <v>-2737</v>
+        <v>-3164</v>
       </c>
       <c r="G19">
         <f ca="1"/>
-        <v>-1.5883535325178499E-4</v>
+        <v>-1.3739997683925864E-4</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
+        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
       </c>
       <c r="C20" t="str">
         <v>GBP-IRSwap-3Y</v>
@@ -2544,16 +2552,16 @@
       </c>
       <c r="F20">
         <f ca="1"/>
-        <v>-2705</v>
+        <v>-3132</v>
       </c>
       <c r="G20">
         <f ca="1"/>
-        <v>-2.4634779435839249E-4</v>
+        <v>-2.1276295701566639E-4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
+        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
       </c>
       <c r="C21" t="str">
         <v>GBP-IRSwap-4Y</v>
@@ -2563,16 +2571,16 @@
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>-2690</v>
+        <v>-3117</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>-2.7942658422741573E-4</v>
+        <v>-2.4114889580983956E-4</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
+        <v>Market.QR_LIVE.FxCurve.JPY-USD</v>
       </c>
       <c r="C22" t="str">
         <v>GBP-IRSwap-5Y</v>
@@ -2582,16 +2590,16 @@
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>-2600</v>
+        <v>-3027</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>-5.6571370144853361E-4</v>
+        <v>-4.8591684725929341E-4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
+        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
       </c>
       <c r="C23" t="str">
         <v>GBP-IRSwap-7Y</v>
@@ -2601,16 +2609,16 @@
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>-2507</v>
+        <v>-2934</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>-9.0147160101938795E-4</v>
+        <v>-7.702884695204304E-4</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
       </c>
       <c r="C24" t="str">
         <v>GBP-IRSwap-10Y</v>
@@ -2620,16 +2628,16 @@
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>-2416</v>
+        <v>-2843</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>-1.2815677430975114E-3</v>
+        <v>-1.0891108596102761E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
       </c>
       <c r="C25" t="str">
         <v>GBP-IRSwap-12Y</v>
@@ -2639,16 +2647,16 @@
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>-2319</v>
+        <v>-2746</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>-1.7640777266048069E-3</v>
+        <v>-1.4898166586498895E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
       </c>
       <c r="C26" t="str">
         <v>GBP-IRSwap-15Y</v>
@@ -2658,16 +2666,16 @@
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>-2228</v>
+        <v>-2655</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>-2.3210289995692079E-3</v>
+        <v>-1.9478320003729621E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
       </c>
       <c r="C27" t="str">
         <v>GBP-IRSwap-20Y</v>
@@ -2677,16 +2685,16 @@
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>-2136</v>
+        <v>-2563</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>-3.0050517958764011E-3</v>
+        <v>-2.5045620158281601E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
       </c>
       <c r="C28" t="str">
         <v>GBP-IRSwap-25Y</v>
@@ -2696,16 +2704,16 @@
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>-2045</v>
+        <v>-2472</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>-3.8221627744476905E-3</v>
+        <v>-3.1622039548038217E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
       </c>
       <c r="C29" t="str">
         <v>GBP-IRSwap-30Y</v>
@@ -2715,16 +2723,16 @@
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>-1701</v>
+        <v>-2128</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>-9.9127741039084505E-3</v>
+        <v>-7.9256697828760103E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
       </c>
       <c r="C30" t="str">
         <v>GBP-IRFuture-L-1</v>
@@ -2734,16 +2742,16 @@
       </c>
       <c r="F30">
         <f ca="1"/>
-        <v>-1337</v>
+        <v>-1764</v>
       </c>
       <c r="G30">
         <f ca="1"/>
-        <v>-1.9879032701564547E-2</v>
+        <v>-1.5076126131467582E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
       </c>
       <c r="C31" t="str">
         <v>GBP-IRFuture-L-2</v>
@@ -2753,16 +2761,16 @@
       </c>
       <c r="F31">
         <f ca="1"/>
-        <v>-973</v>
+        <v>-1400</v>
       </c>
       <c r="G31">
         <f ca="1"/>
-        <v>-3.8984596916582959E-2</v>
+        <v>-2.7134736468167553E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
       </c>
       <c r="C32" t="str">
         <v>GBP-IRFuture-L-3</v>
@@ -2772,16 +2780,16 @@
       </c>
       <c r="F32">
         <f ca="1"/>
-        <v>-240</v>
+        <v>-667</v>
       </c>
       <c r="G32">
         <f ca="1"/>
-        <v>-0.26251297878814306</v>
+        <v>-9.6516141725650151E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
       </c>
       <c r="C33" t="str">
         <v>GBP-IRFuture-L-4</v>
@@ -2791,16 +2799,16 @@
       </c>
       <c r="F33">
         <f ca="1"/>
-        <v>854</v>
+        <v>427</v>
       </c>
       <c r="G33">
         <f ca="1"/>
-        <v>0.13290760475570895</v>
+        <v>0.2702313173618931</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
       </c>
       <c r="C34" t="str">
         <v>GBP-IRFuture-L-5</v>
@@ -2810,16 +2818,16 @@
       </c>
       <c r="F34">
         <f ca="1"/>
-        <v>1586</v>
+        <v>1159</v>
       </c>
       <c r="G34">
         <f ca="1"/>
-        <v>9.2014495720684764E-2</v>
+        <v>0.12644557728762695</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
       </c>
       <c r="C35" t="str">
         <v>GBP-IRFuture-L-6</v>
@@ -2829,16 +2837,16 @@
       </c>
       <c r="F35">
         <f ca="1"/>
-        <v>2681</v>
+        <v>2254</v>
       </c>
       <c r="G35">
         <f ca="1"/>
-        <v>7.2508880139380061E-2</v>
+        <v>8.6392399453329105E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
       </c>
       <c r="C36" t="str">
         <v>GBP-IRFuture-L-7</v>
@@ -2848,16 +2856,16 @@
       </c>
       <c r="F36">
         <f ca="1"/>
-        <v>4508</v>
+        <v>4081</v>
       </c>
       <c r="G36">
         <f ca="1"/>
-        <v>6.0261380848555923E-2</v>
+        <v>6.6618832933643013E-2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
       </c>
       <c r="C37" t="str">
         <v>GBP-IRFuture-L-8</v>
@@ -2867,16 +2875,16 @@
       </c>
       <c r="F37">
         <f ca="1"/>
-        <v>6334</v>
+        <v>5907</v>
       </c>
       <c r="G37">
         <f ca="1"/>
-        <v>5.4278647695514159E-2</v>
+        <v>5.8230721300474464E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
       </c>
       <c r="C38" t="e">
         <v>#N/A</v>
@@ -2886,16 +2894,16 @@
       </c>
       <c r="F38">
         <f ca="1"/>
-        <v>8161</v>
+        <v>7734</v>
       </c>
       <c r="G38">
         <f ca="1"/>
-        <v>5.0542234079176573E-2</v>
+        <v>5.3351238491851305E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
       </c>
       <c r="C39" t="e">
         <v>#N/A</v>
@@ -2914,7 +2922,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
       </c>
       <c r="C40" t="e">
         <v>#N/A</v>
@@ -2933,7 +2941,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
       </c>
       <c r="C41" t="e">
         <v>#N/A</v>
@@ -2952,7 +2960,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
       </c>
       <c r="C42" t="e">
         <v>#N/A</v>
@@ -2971,7 +2979,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
       </c>
       <c r="C43" t="e">
         <v>#N/A</v>
@@ -2990,7 +2998,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
       </c>
       <c r="C44" t="e">
         <v>#N/A</v>
@@ -3009,7 +3017,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="C45" t="e">
         <v>#N/A</v>
@@ -3028,7 +3036,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6" t="str">
-        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
       </c>
       <c r="C46" t="e">
         <v>#N/A</v>
@@ -3047,7 +3055,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M-SydneySwapDesk</v>
       </c>
       <c r="C47" t="e">
         <v>#N/A</v>
@@ -3058,7 +3066,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6" t="str">
-        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="C48" t="e">
         <v>#N/A</v>
@@ -3069,7 +3077,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M-SydneySwapDesk</v>
       </c>
       <c r="C49" t="e">
         <v>#N/A</v>
@@ -3080,7 +3088,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="str">
-        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C50" t="e">
         <v>#N/A</v>
@@ -3091,7 +3099,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M-SydneySwapDesk</v>
       </c>
       <c r="C51" t="e">
         <v>#N/A</v>
@@ -3102,7 +3110,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="str">
-        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C52" t="e">
         <v>#N/A</v>
@@ -3113,7 +3121,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-SydneySwapDesk</v>
       </c>
       <c r="C53" t="e">
         <v>#N/A</v>
@@ -3124,7 +3132,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="str">
-        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
       <c r="C54" t="e">
         <v>#N/A</v>
@@ -3135,7 +3143,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+        <v>Configuration.PricingStructures.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
       <c r="C55" t="e">
         <v>#N/A</v>
@@ -3146,7 +3154,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
       <c r="C56" t="e">
         <v>#N/A</v>
@@ -3157,157 +3165,157 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="6" t="e">
-        <v>#N/A</v>
+      <c r="A87" s="6" t="str">
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
       </c>
     </row>
     <row r="88" spans="1:1">
@@ -3539,7 +3547,7 @@
   </sheetPr>
   <dimension ref="B1:L151"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -4322,7 +4330,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f ca="1">TODAY() + 52</f>
-        <v>43269</v>
+        <v>43696</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>125</v>
@@ -4385,7 +4393,7 @@
       </c>
       <c r="L4" s="21">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -4412,7 +4420,7 @@
       </c>
       <c r="L5" s="21">
         <f ca="1">E8</f>
-        <v>46871</v>
+        <v>47301</v>
       </c>
     </row>
     <row r="6" spans="2:12">
@@ -4438,7 +4446,7 @@
       </c>
       <c r="L6" s="21">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -4449,7 +4457,7 @@
       </c>
       <c r="E7" s="26">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(L4,$F$7,$F$4,"FOLLOWING","Business")</f>
-        <v>43220</v>
+        <v>43647</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>23</v>
@@ -4459,7 +4467,7 @@
       </c>
       <c r="H7" s="26">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(L4,$I$7,$I$4,"FOLLOWING","Business")</f>
-        <v>43220</v>
+        <v>43647</v>
       </c>
       <c r="I7" s="27" t="s">
         <v>23</v>
@@ -4479,7 +4487,7 @@
       </c>
       <c r="E8" s="26">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(E7,$F$8,$F$4,"MODFOLLOWING","Calendar")</f>
-        <v>46871</v>
+        <v>47301</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>24</v>
@@ -4489,7 +4497,7 @@
       </c>
       <c r="H8" s="26">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(H7,$I$8,$I$4,"MODFOLLOWING","Calendar")</f>
-        <v>46871</v>
+        <v>47301</v>
       </c>
       <c r="I8" s="27" t="s">
         <v>24</v>
@@ -4647,7 +4655,7 @@
       </c>
       <c r="L15" s="21">
         <f ca="1">L6</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1">
@@ -5474,7 +5482,7 @@
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
